--- a/biology/Zoologie/Griffe_de_toilette/Griffe_de_toilette.xlsx
+++ b/biology/Zoologie/Griffe_de_toilette/Griffe_de_toilette.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une griffe de toilette est une griffe trouvée sur la main et/ou le pied de certains primates et utilisée pour ses soins personnels. Tous les prosimiens ont une griffe de toilette mais le doigt qui en est pourvu varie. Les tarsiers ont une griffe de toilette aux deuxième et troisième orteils. À une exception près possible, dans le sous-ordre des Strepsirrhini, qui inclut les lémuriens, galagos et loris, la griffe de toilette est sur le deuxième orteil. La seule exception possible est le aye-aye, qui a des griffes au lieu d'ongles sur les orteils 2 à 5. 
 Comme les ongles et les griffes, la griffe de toilette est faite de kératine. Elle ressemble à une griffe à la fois par sa compression latérale et par sa courbure longitudinale. Toutefois,l'extrémité n'est pas aussi acérée.
@@ -513,7 +525,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">(en) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en anglais intitulé « Grooming claw » (voir la liste des auteurs).
  Portail des primates   Portail de l’anatomie                    </t>
